--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965207.3421820943</v>
+        <v>998366.1133014575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1318694.846775416</v>
+        <v>1315595.431744265</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7795579.430010349</v>
+        <v>7800792.82888987</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9152602.545636257</v>
+        <v>9151193.214695726</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.20662970553738</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>16.93162886246722</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>38.12502610536669</v>
-      </c>
-      <c r="C6" t="n">
-        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>44.13217237922859</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>44.13217237922859</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.309830843116521</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.1272398938482</v>
+        <v>414.1307230867058</v>
       </c>
       <c r="H11" t="n">
-        <v>327.4362371017634</v>
+        <v>327.471909350616</v>
       </c>
       <c r="I11" t="n">
-        <v>165.1575175257453</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>76.02876548799078</v>
+        <v>76.24756660133036</v>
       </c>
       <c r="S11" t="n">
-        <v>182.2334175411717</v>
+        <v>182.3127907984136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>73.90084613545685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>91.63166569055046</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7145704878212</v>
+        <v>136.7164341603015</v>
       </c>
       <c r="H12" t="n">
-        <v>63.80003464403123</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.74210915927802</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>61.22368069132156</v>
       </c>
       <c r="S12" t="n">
-        <v>160.0007624622836</v>
+        <v>160.035379361206</v>
       </c>
       <c r="T12" t="n">
-        <v>197.6296322269141</v>
+        <v>197.6371441348502</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9000040102255</v>
+        <v>225.9001266202571</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.81067757773469</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6926326143684</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>253.4083404743119</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>59.69841762362729</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>197.4599066561519</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.471909350616</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2516130981336</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>106.1611434504983</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.53860847045957</v>
+        <v>61.22368069132156</v>
       </c>
       <c r="S15" t="n">
-        <v>160.0007624622836</v>
+        <v>160.035379361206</v>
       </c>
       <c r="T15" t="n">
-        <v>197.6296322269141</v>
+        <v>95.63166454198557</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9000040102255</v>
+        <v>225.9001266202571</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>95.63703006977093</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.290268205675</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.785054051637351</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>143.2197841673187</v>
+        <v>28.87913959011838</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>63.01667685547826</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>232.3056710074057</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>257.9792381584243</v>
+        <v>211.4163976816299</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.127162662147</v>
+        <v>151.2725262699913</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17.20594825574983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>237.1972684446273</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13.72101765531089</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>80.8285783423734</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>84.53754774285304</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>134.4744101939901</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>58.85422515450273</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,22 +2845,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.220259035292</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>88.18421182873882</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>329.2473516414947</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.7776834342834</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>208.1110812604921</v>
       </c>
       <c r="T34" t="n">
-        <v>57.44045292477195</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>41.71736365729144</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>215.0497352822181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.43151777216859</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>36.28683537633368</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>66.9907033697247</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3590,13 +3590,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554002</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>74.09260911231075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>235.7412200973001</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>21.8634478724964</v>
       </c>
       <c r="U41" t="n">
-        <v>47.63015672093704</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>140.2665069374915</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>27.40538780172603</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>118.2537958723258</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>298.0990455677644</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>117.4656213586809</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>105.5537682100188</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>34.14678563894161</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>74.0926091123107</v>
+        <v>123.4514883688807</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D2" t="n">
-        <v>68.2764642733967</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E2" t="n">
-        <v>68.2764642733967</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F2" t="n">
-        <v>30.69401002537914</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G2" t="n">
-        <v>15.2366994040306</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.90455691260225</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="C3" t="n">
-        <v>43.90455691260225</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="D3" t="n">
-        <v>43.90455691260225</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E3" t="n">
-        <v>43.90455691260225</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F3" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G3" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>83.88827101547153</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>83.88827101547153</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.88827101547153</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.66114634470771</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E5" t="n">
         <v>121.8591222504766</v>
@@ -4558,10 +4558,10 @@
         <v>77.28117035226589</v>
       </c>
       <c r="G5" t="n">
-        <v>60.17851493563234</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
         <v>15.60056303742164</v>
@@ -4570,13 +4570,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
+        <v>45.45613755060546</v>
+      </c>
+      <c r="M5" t="n">
         <v>89.14698820604177</v>
-      </c>
-      <c r="M5" t="n">
-        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
         <v>132.8378388614781</v>
@@ -4591,28 +4591,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.8626583413347</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C6" t="n">
         <v>4.284706443124001</v>
@@ -4649,22 +4649,22 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>90.91227510121089</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O6" t="n">
-        <v>90.91227510121089</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
         <v>176.5286895169144</v>
@@ -4673,25 +4673,25 @@
         <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y6" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.73598234693722</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C7" t="n">
-        <v>90.73598234693722</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D7" t="n">
-        <v>90.73598234693722</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E7" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F7" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G7" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H7" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J7" t="n">
         <v>26.02500997809875</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="E8" t="n">
+        <v>149.3344187320537</v>
+      </c>
+      <c r="F8" t="n">
         <v>104.756466833843</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>60.17851493563234</v>
       </c>
-      <c r="G8" t="n">
-        <v>15.60056303742164</v>
-      </c>
       <c r="H8" t="n">
-        <v>15.60056303742164</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I8" t="n">
         <v>15.60056303742164</v>
@@ -4813,10 +4813,10 @@
         <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
         <v>176.5286895169144</v>
@@ -4828,28 +4828,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="V8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="W8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>149.3344187320537</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E9" t="n">
-        <v>138.0185621377561</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I9" t="n">
         <v>4.284706443124001</v>
@@ -4886,19 +4886,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="M9" t="n">
         <v>47.22142444577459</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>90.91227510121089</v>
       </c>
-      <c r="M9" t="n">
-        <v>90.91227510121089</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="O9" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
         <v>176.5286895169144</v>
@@ -4907,28 +4907,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="D10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="E10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="G10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="I10" t="n">
         <v>70.60296187630945</v>
@@ -4983,31 +4983,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="S10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="U10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="V10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="W10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="X10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1335.207821046214</v>
+        <v>1960.761867752017</v>
       </c>
       <c r="C11" t="n">
-        <v>966.245304105802</v>
+        <v>1591.799350811605</v>
       </c>
       <c r="D11" t="n">
-        <v>966.245304105802</v>
+        <v>1591.799350811605</v>
       </c>
       <c r="E11" t="n">
-        <v>961.8919396178055</v>
+        <v>1206.011098213361</v>
       </c>
       <c r="F11" t="n">
-        <v>961.8919396178055</v>
+        <v>795.0251934237534</v>
       </c>
       <c r="G11" t="n">
-        <v>543.581596290686</v>
+        <v>376.7113317200102</v>
       </c>
       <c r="H11" t="n">
-        <v>212.8379224505209</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I11" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J11" t="n">
-        <v>132.9535530332703</v>
+        <v>132.5803558431287</v>
       </c>
       <c r="K11" t="n">
-        <v>384.0009874325198</v>
+        <v>383.1891458008562</v>
       </c>
       <c r="L11" t="n">
-        <v>747.7241564796877</v>
+        <v>746.3681376307212</v>
       </c>
       <c r="M11" t="n">
-        <v>1169.042809469435</v>
+        <v>1167.081288614495</v>
       </c>
       <c r="N11" t="n">
-        <v>1582.546841193834</v>
+        <v>1579.970020677431</v>
       </c>
       <c r="O11" t="n">
-        <v>1927.819334926688</v>
+        <v>1924.661504387809</v>
       </c>
       <c r="P11" t="n">
-        <v>2184.827037258681</v>
+        <v>2181.17332810776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R11" t="n">
-        <v>2223.810625783361</v>
+        <v>2219.563521220573</v>
       </c>
       <c r="S11" t="n">
-        <v>2039.736466650864</v>
+        <v>2035.409187080761</v>
       </c>
       <c r="T11" t="n">
-        <v>2039.736466650864</v>
+        <v>1960.761867752017</v>
       </c>
       <c r="U11" t="n">
-        <v>2039.736466650864</v>
+        <v>1960.761867752017</v>
       </c>
       <c r="V11" t="n">
-        <v>1708.673579307293</v>
+        <v>1960.761867752017</v>
       </c>
       <c r="W11" t="n">
-        <v>1708.673579307293</v>
+        <v>1960.761867752017</v>
       </c>
       <c r="X11" t="n">
-        <v>1335.207821046214</v>
+        <v>1960.761867752017</v>
       </c>
       <c r="Y11" t="n">
-        <v>1335.207821046214</v>
+        <v>1960.761867752017</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.9661124980812</v>
+        <v>572.0552392536047</v>
       </c>
       <c r="C12" t="n">
-        <v>463.5130832169542</v>
+        <v>572.0552392536047</v>
       </c>
       <c r="D12" t="n">
-        <v>463.5130832169542</v>
+        <v>423.1208295923534</v>
       </c>
       <c r="E12" t="n">
-        <v>463.5130832169542</v>
+        <v>330.5635915210903</v>
       </c>
       <c r="F12" t="n">
-        <v>316.9785252438392</v>
+        <v>184.0290335479752</v>
       </c>
       <c r="G12" t="n">
-        <v>178.8829994985653</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H12" t="n">
-        <v>114.4385200601499</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I12" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J12" t="n">
-        <v>104.1004732117085</v>
+        <v>103.8456359273758</v>
       </c>
       <c r="K12" t="n">
-        <v>330.0035177008423</v>
+        <v>329.4507476032989</v>
       </c>
       <c r="L12" t="n">
-        <v>695.162435470523</v>
+        <v>466.6702606235569</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.264890714595</v>
+        <v>944.3052258869363</v>
       </c>
       <c r="N12" t="n">
-        <v>1679.72830869818</v>
+        <v>1450.288780821098</v>
       </c>
       <c r="O12" t="n">
-        <v>2076.627712242026</v>
+        <v>1846.749203423579</v>
       </c>
       <c r="P12" t="n">
-        <v>2300.607358599513</v>
+        <v>2147.940577452939</v>
       </c>
       <c r="Q12" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R12" t="n">
-        <v>2300.607358599513</v>
+        <v>2234.739163553915</v>
       </c>
       <c r="S12" t="n">
-        <v>2138.990426819428</v>
+        <v>2073.087265209263</v>
       </c>
       <c r="T12" t="n">
-        <v>1939.364535681131</v>
+        <v>1873.453786285171</v>
       </c>
       <c r="U12" t="n">
-        <v>1711.18271344858</v>
+        <v>1645.271840204104</v>
       </c>
       <c r="V12" t="n">
-        <v>1476.030605216838</v>
+        <v>1410.119731972361</v>
       </c>
       <c r="W12" t="n">
-        <v>1221.793248488636</v>
+        <v>1155.882375244159</v>
       </c>
       <c r="X12" t="n">
-        <v>1013.941748283103</v>
+        <v>948.0308750386266</v>
       </c>
       <c r="Y12" t="n">
-        <v>806.1814495181493</v>
+        <v>740.2705762736728</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="C13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="D13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="E13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="F13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="G13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J13" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K13" t="n">
-        <v>84.61398898987858</v>
+        <v>84.35375522801493</v>
       </c>
       <c r="L13" t="n">
-        <v>189.537490970755</v>
+        <v>189.047287855778</v>
       </c>
       <c r="M13" t="n">
-        <v>310.5537355435726</v>
+        <v>309.8210619898201</v>
       </c>
       <c r="N13" t="n">
-        <v>434.127100726908</v>
+        <v>433.1577221394659</v>
       </c>
       <c r="O13" t="n">
-        <v>532.2508088879628</v>
+        <v>531.0627948900885</v>
       </c>
       <c r="P13" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="Q13" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="R13" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="S13" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="T13" t="n">
-        <v>364.7195542091335</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="U13" t="n">
-        <v>364.7195542091335</v>
+        <v>335.348795342207</v>
       </c>
       <c r="V13" t="n">
-        <v>364.7195542091335</v>
+        <v>335.348795342207</v>
       </c>
       <c r="W13" t="n">
-        <v>364.7195542091335</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="X13" t="n">
-        <v>136.7300033111162</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.7300033111162</v>
+        <v>45.93162530524642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>989.5205495448151</v>
+        <v>1592.05261965767</v>
       </c>
       <c r="C14" t="n">
-        <v>989.5205495448151</v>
+        <v>1531.751187714612</v>
       </c>
       <c r="D14" t="n">
-        <v>631.2548509380647</v>
+        <v>1173.485489107862</v>
       </c>
       <c r="E14" t="n">
-        <v>245.4665983398205</v>
+        <v>787.6972365096177</v>
       </c>
       <c r="F14" t="n">
-        <v>245.4665983398205</v>
+        <v>376.7113317200102</v>
       </c>
       <c r="G14" t="n">
-        <v>46.01214717199026</v>
+        <v>376.7113317200102</v>
       </c>
       <c r="H14" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I14" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J14" t="n">
-        <v>132.9535530332704</v>
+        <v>132.5803558431289</v>
       </c>
       <c r="K14" t="n">
-        <v>384.0009874325198</v>
+        <v>383.1891458008563</v>
       </c>
       <c r="L14" t="n">
-        <v>747.7241564796877</v>
+        <v>746.3681376307213</v>
       </c>
       <c r="M14" t="n">
-        <v>1169.042809469435</v>
+        <v>1167.081288614495</v>
       </c>
       <c r="N14" t="n">
-        <v>1582.546841193834</v>
+        <v>1579.970020677431</v>
       </c>
       <c r="O14" t="n">
-        <v>1927.819334926688</v>
+        <v>1924.661504387808</v>
       </c>
       <c r="P14" t="n">
-        <v>2184.827037258681</v>
+        <v>2181.17332810776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R14" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="S14" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="T14" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="U14" t="n">
-        <v>2046.81785041958</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="V14" t="n">
-        <v>1715.754963076009</v>
+        <v>1965.51837791875</v>
       </c>
       <c r="W14" t="n">
-        <v>1362.986307805895</v>
+        <v>1965.51837791875</v>
       </c>
       <c r="X14" t="n">
-        <v>989.5205495448151</v>
+        <v>1592.05261965767</v>
       </c>
       <c r="Y14" t="n">
-        <v>989.5205495448151</v>
+        <v>1592.05261965767</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>782.4050773257655</v>
+        <v>675.0910772261952</v>
       </c>
       <c r="C15" t="n">
-        <v>607.9520480446386</v>
+        <v>500.6380479450683</v>
       </c>
       <c r="D15" t="n">
-        <v>459.0176383833874</v>
+        <v>351.703638283817</v>
       </c>
       <c r="E15" t="n">
-        <v>299.7801833779318</v>
+        <v>192.4661832783615</v>
       </c>
       <c r="F15" t="n">
-        <v>153.2456254048168</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="G15" t="n">
-        <v>153.2456254048168</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H15" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I15" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J15" t="n">
-        <v>104.1004732117085</v>
+        <v>103.8456359273758</v>
       </c>
       <c r="K15" t="n">
-        <v>330.0035177008423</v>
+        <v>329.4507476032989</v>
       </c>
       <c r="L15" t="n">
-        <v>695.162435470523</v>
+        <v>694.2090579384251</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.264890714595</v>
+        <v>944.3052258869363</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.72830869818</v>
+        <v>1450.288780821098</v>
       </c>
       <c r="O15" t="n">
-        <v>2076.627712242026</v>
+        <v>1846.749203423579</v>
       </c>
       <c r="P15" t="n">
-        <v>2300.607358599513</v>
+        <v>2147.940577452939</v>
       </c>
       <c r="Q15" t="n">
-        <v>2300.607358599513</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R15" t="n">
-        <v>2276.830986407129</v>
+        <v>2234.739163553915</v>
       </c>
       <c r="S15" t="n">
-        <v>2115.214054627045</v>
+        <v>2073.087265209263</v>
       </c>
       <c r="T15" t="n">
-        <v>1915.588163488748</v>
+        <v>1976.489624257762</v>
       </c>
       <c r="U15" t="n">
-        <v>1687.406341256197</v>
+        <v>1748.307678176694</v>
       </c>
       <c r="V15" t="n">
-        <v>1452.254233024454</v>
+        <v>1513.155569944952</v>
       </c>
       <c r="W15" t="n">
-        <v>1198.016876296252</v>
+        <v>1258.91821321675</v>
       </c>
       <c r="X15" t="n">
-        <v>990.1653760907195</v>
+        <v>1051.066713011217</v>
       </c>
       <c r="Y15" t="n">
-        <v>782.4050773257655</v>
+        <v>843.3064142462633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="C16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="D16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="E16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="F16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="G16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K16" t="n">
-        <v>84.61398898987858</v>
+        <v>84.35375522801493</v>
       </c>
       <c r="L16" t="n">
-        <v>189.537490970755</v>
+        <v>189.047287855778</v>
       </c>
       <c r="M16" t="n">
-        <v>310.5537355435726</v>
+        <v>309.8210619898201</v>
       </c>
       <c r="N16" t="n">
-        <v>434.127100726908</v>
+        <v>433.1577221394659</v>
       </c>
       <c r="O16" t="n">
-        <v>532.2508088879628</v>
+        <v>531.0627948900885</v>
       </c>
       <c r="P16" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="Q16" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="R16" t="n">
-        <v>592.6919103852633</v>
+        <v>591.3168160233301</v>
       </c>
       <c r="S16" t="n">
-        <v>592.6919103852633</v>
+        <v>494.7137553467938</v>
       </c>
       <c r="T16" t="n">
-        <v>592.6919103852633</v>
+        <v>494.7137553467938</v>
       </c>
       <c r="U16" t="n">
-        <v>303.5098212886219</v>
+        <v>494.7137553467938</v>
       </c>
       <c r="V16" t="n">
-        <v>48.82533308273506</v>
+        <v>494.7137553467938</v>
       </c>
       <c r="W16" t="n">
-        <v>46.01214717199026</v>
+        <v>494.7137553467938</v>
       </c>
       <c r="X16" t="n">
-        <v>46.01214717199026</v>
+        <v>266.7242044487765</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.01214717199026</v>
+        <v>45.93162530524642</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1303.85528118563</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C17" t="n">
-        <v>1303.85528118563</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>945.5895825788796</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>945.5895825788796</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>1693.994613161442</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X17" t="n">
-        <v>1693.994613161442</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y17" t="n">
-        <v>1303.85528118563</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>286.5323736931989</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C19" t="n">
-        <v>117.596190765292</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
-        <v>117.596190765292</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>286.5323736931989</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V19" t="n">
-        <v>286.5323736931989</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5323736931989</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X19" t="n">
-        <v>286.5323736931989</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y19" t="n">
-        <v>286.5323736931989</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1487.242648509747</v>
+        <v>1391.463776022345</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.280131569335</v>
+        <v>1391.463776022345</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W20" t="n">
-        <v>2247.308246834948</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X20" t="n">
-        <v>1873.842488573869</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y20" t="n">
-        <v>1873.842488573869</v>
+        <v>1778.063616086466</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>570.4247794971948</v>
+        <v>575.3284526205844</v>
       </c>
       <c r="T22" t="n">
-        <v>343.1165921657965</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1208.982837814967</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>551.9834235021506</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V23" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W23" t="n">
-        <v>1972.587928051858</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X23" t="n">
-        <v>1599.122169790778</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1208.982837814967</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6095,25 +6095,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.9192350259435</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C25" t="n">
-        <v>217.9192350259435</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>67.80259561360776</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>67.80259561360776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6189,10 +6189,10 @@
         <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9192350259435</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1190.010945960184</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C26" t="n">
-        <v>821.0484290197721</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D26" t="n">
-        <v>462.7827304130216</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>462.7827304130216</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>462.7827304130216</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>462.7827304130216</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>135.5880104490245</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.476704221264</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X26" t="n">
-        <v>1190.010945960184</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y26" t="n">
-        <v>1190.010945960184</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6311,43 +6311,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V28" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W28" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1095.807382993971</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="C29" t="n">
-        <v>1095.807382993971</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.807382993971</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
         <v>1036.358670716696</v>
@@ -6466,7 +6466,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224075</v>
@@ -6493,22 +6493,22 @@
         <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2212.181128500977</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W29" t="n">
-        <v>1859.412473230863</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="X29" t="n">
-        <v>1485.946714969783</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="Y29" t="n">
-        <v>1095.807382993971</v>
+        <v>1916.245359491377</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.2978374347314</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C31" t="n">
-        <v>325.2978374347314</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D31" t="n">
-        <v>325.2978374347314</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E31" t="n">
-        <v>325.2978374347314</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F31" t="n">
-        <v>178.407889936821</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G31" t="n">
-        <v>178.407889936821</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>178.407889936821</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036444</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>325.2978374347314</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2978374347314</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="X31" t="n">
-        <v>325.2978374347314</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>325.2978374347314</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1610.120910258947</v>
+        <v>1082.67330119093</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>713.7107842505179</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>713.7107842505179</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>713.7107842505179</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>713.7107842505179</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6733,19 +6733,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W32" t="n">
-        <v>2134.880026519315</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X32" t="n">
-        <v>2134.880026519315</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y32" t="n">
-        <v>1996.720750323069</v>
+        <v>1469.273141255051</v>
       </c>
     </row>
     <row r="33">
@@ -6803,19 +6803,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.6911546495019</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C34" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="T34" t="n">
-        <v>670.1083246864625</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U34" t="n">
-        <v>670.1083246864625</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V34" t="n">
-        <v>670.1083246864625</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W34" t="n">
-        <v>380.6911546495019</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X34" t="n">
-        <v>380.6911546495019</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.6911546495019</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1363.553390680693</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="C35" t="n">
-        <v>1363.553390680693</v>
+        <v>1310.819698479011</v>
       </c>
       <c r="D35" t="n">
-        <v>1363.553390680693</v>
+        <v>1310.819698479011</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>925.0314458807663</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>514.0455410911588</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>96.08173298934571</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>96.08173298934571</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6970,19 +6970,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>2479.927136187699</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W35" t="n">
-        <v>2127.158480917584</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X35" t="n">
-        <v>1753.692722656504</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y35" t="n">
-        <v>1363.553390680693</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>286.5323736931987</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.9054987607761</v>
+        <v>1172.541840390021</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036444</v>
+        <v>803.5793234496095</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036444</v>
+        <v>803.5793234496095</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036444</v>
+        <v>417.7910708513653</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>417.7910708513653</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036444</v>
@@ -7174,16 +7174,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V38" t="n">
-        <v>1925.879084331904</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W38" t="n">
-        <v>1573.11042906179</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.64467080071</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.505338824898</v>
+        <v>1172.541840390021</v>
       </c>
     </row>
     <row r="39">
@@ -7238,10 +7238,10 @@
         <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036444</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931987</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>286.5323736931987</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1153.155288866007</v>
+        <v>1260.669590794911</v>
       </c>
       <c r="C41" t="n">
-        <v>784.192771925595</v>
+        <v>1260.669590794911</v>
       </c>
       <c r="D41" t="n">
-        <v>784.192771925595</v>
+        <v>1260.669590794911</v>
       </c>
       <c r="E41" t="n">
-        <v>784.192771925595</v>
+        <v>874.8813381966671</v>
       </c>
       <c r="F41" t="n">
-        <v>373.2068671359874</v>
+        <v>463.8954334070596</v>
       </c>
       <c r="G41" t="n">
-        <v>373.2068671359874</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H41" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I41" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J41" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K41" t="n">
-        <v>340.2629581919887</v>
+        <v>340.1824363252449</v>
       </c>
       <c r="L41" t="n">
-        <v>757.5837362410836</v>
+        <v>757.5032143743397</v>
       </c>
       <c r="M41" t="n">
-        <v>1238.540056399119</v>
+        <v>1238.459534532375</v>
       </c>
       <c r="N41" t="n">
-        <v>1712.64675509585</v>
+        <v>1712.566233229107</v>
       </c>
       <c r="O41" t="n">
-        <v>2115.144628761365</v>
+        <v>2115.064106894621</v>
       </c>
       <c r="P41" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="Q41" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R41" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="S41" t="n">
-        <v>2124.429870913682</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="T41" t="n">
-        <v>1905.795203885745</v>
+        <v>2274.496974482021</v>
       </c>
       <c r="U41" t="n">
-        <v>1857.683934470657</v>
+        <v>2020.735189120113</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.621047127087</v>
+        <v>2020.735189120113</v>
       </c>
       <c r="W41" t="n">
-        <v>1526.621047127087</v>
+        <v>2020.735189120113</v>
       </c>
       <c r="X41" t="n">
-        <v>1153.155288866007</v>
+        <v>1647.269430859033</v>
       </c>
       <c r="Y41" t="n">
-        <v>1153.155288866007</v>
+        <v>1647.269430859033</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>842.6570275149751</v>
+        <v>980.4866187019653</v>
       </c>
       <c r="C42" t="n">
-        <v>668.2039982338481</v>
+        <v>806.0335894208383</v>
       </c>
       <c r="D42" t="n">
-        <v>519.2695885725968</v>
+        <v>657.0991797595871</v>
       </c>
       <c r="E42" t="n">
-        <v>360.0321335671414</v>
+        <v>497.8617247541315</v>
       </c>
       <c r="F42" t="n">
-        <v>213.4975755940264</v>
+        <v>351.3271667810164</v>
       </c>
       <c r="G42" t="n">
-        <v>213.4975755940264</v>
+        <v>213.4170537272825</v>
       </c>
       <c r="H42" t="n">
-        <v>108.0547936189682</v>
+        <v>107.9742717522244</v>
       </c>
       <c r="I42" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J42" t="n">
-        <v>121.2693095721201</v>
+        <v>121.1887877053762</v>
       </c>
       <c r="K42" t="n">
-        <v>376.5166300132186</v>
+        <v>376.4361081464747</v>
       </c>
       <c r="L42" t="n">
-        <v>781.1325481088904</v>
+        <v>781.0520262421467</v>
       </c>
       <c r="M42" t="n">
-        <v>1305.279461666921</v>
+        <v>1184.324704745963</v>
       </c>
       <c r="N42" t="n">
-        <v>1384.457047166354</v>
+        <v>1738.051240845514</v>
       </c>
       <c r="O42" t="n">
-        <v>1792.289561119087</v>
+        <v>1788.263467781895</v>
       </c>
       <c r="P42" t="n">
-        <v>2128.534374733916</v>
+        <v>2124.508281396724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R42" t="n">
-        <v>2300.607358599512</v>
+        <v>2246.367894674146</v>
       </c>
       <c r="S42" t="n">
-        <v>2142.434386243428</v>
+        <v>2104.684554333245</v>
       </c>
       <c r="T42" t="n">
-        <v>1943.555838366207</v>
+        <v>1905.806006456024</v>
       </c>
       <c r="U42" t="n">
-        <v>1915.873628465474</v>
+        <v>1677.636382426864</v>
       </c>
       <c r="V42" t="n">
-        <v>1680.721520233731</v>
+        <v>1442.484274195121</v>
       </c>
       <c r="W42" t="n">
-        <v>1426.48416350553</v>
+        <v>1188.246917466919</v>
       </c>
       <c r="X42" t="n">
-        <v>1218.632663299997</v>
+        <v>1188.246917466919</v>
       </c>
       <c r="Y42" t="n">
-        <v>1010.872364535043</v>
+        <v>980.4866187019653</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>372.7603200011277</v>
+        <v>214.8678082331533</v>
       </c>
       <c r="C43" t="n">
-        <v>372.7603200011277</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="D43" t="n">
-        <v>372.7603200011277</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="E43" t="n">
-        <v>372.7603200011277</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="F43" t="n">
-        <v>372.7603200011277</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="G43" t="n">
-        <v>203.7605197394601</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H43" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I43" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J43" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K43" t="n">
-        <v>102.3143402382584</v>
+        <v>102.2338183715146</v>
       </c>
       <c r="L43" t="n">
-        <v>229.8881977994168</v>
+        <v>229.807675932673</v>
       </c>
       <c r="M43" t="n">
-        <v>374.7860665174467</v>
+        <v>374.7055446507029</v>
       </c>
       <c r="N43" t="n">
-        <v>521.6732042018757</v>
+        <v>521.5926823351319</v>
       </c>
       <c r="O43" t="n">
-        <v>641.3309547111159</v>
+        <v>641.2504328443721</v>
       </c>
       <c r="P43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="Q43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="R43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="S43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="T43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="U43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="V43" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="W43" t="n">
-        <v>600.749870899145</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="X43" t="n">
-        <v>372.7603200011277</v>
+        <v>617.3088522069231</v>
       </c>
       <c r="Y43" t="n">
-        <v>372.7603200011277</v>
+        <v>396.516273063393</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>784.192771925595</v>
+        <v>1302.821827982718</v>
       </c>
       <c r="C44" t="n">
-        <v>784.192771925595</v>
+        <v>1302.821827982718</v>
       </c>
       <c r="D44" t="n">
-        <v>784.192771925595</v>
+        <v>944.5561293759671</v>
       </c>
       <c r="E44" t="n">
-        <v>784.192771925595</v>
+        <v>944.5561293759671</v>
       </c>
       <c r="F44" t="n">
-        <v>373.2068671359874</v>
+        <v>944.5561293759671</v>
       </c>
       <c r="G44" t="n">
-        <v>373.2068671359874</v>
+        <v>526.592321274154</v>
       </c>
       <c r="H44" t="n">
-        <v>46.01214717199024</v>
+        <v>199.3976013101568</v>
       </c>
       <c r="I44" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J44" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K44" t="n">
-        <v>340.2629581919887</v>
+        <v>340.1824363252449</v>
       </c>
       <c r="L44" t="n">
-        <v>757.5837362410836</v>
+        <v>757.5032143743397</v>
       </c>
       <c r="M44" t="n">
-        <v>1238.540056399119</v>
+        <v>1238.459534532375</v>
       </c>
       <c r="N44" t="n">
-        <v>1712.64675509585</v>
+        <v>1712.566233229107</v>
       </c>
       <c r="O44" t="n">
-        <v>2115.144628761365</v>
+        <v>2115.064106894621</v>
       </c>
       <c r="P44" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="Q44" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R44" t="n">
-        <v>2300.607358599512</v>
+        <v>2241.552575792814</v>
       </c>
       <c r="S44" t="n">
-        <v>2300.607358599512</v>
+        <v>2065.375088106984</v>
       </c>
       <c r="T44" t="n">
-        <v>2081.972691571575</v>
+        <v>2065.375088106984</v>
       </c>
       <c r="U44" t="n">
-        <v>1828.210906209667</v>
+        <v>1811.613302745076</v>
       </c>
       <c r="V44" t="n">
-        <v>1828.210906209667</v>
+        <v>1811.613302745076</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.442250939553</v>
+        <v>1811.613302745076</v>
       </c>
       <c r="X44" t="n">
-        <v>1475.442250939553</v>
+        <v>1692.961159958529</v>
       </c>
       <c r="Y44" t="n">
-        <v>1085.302918963741</v>
+        <v>1302.821827982718</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>693.7226178537238</v>
+        <v>980.4866187019653</v>
       </c>
       <c r="C45" t="n">
-        <v>519.2695885725968</v>
+        <v>806.0335894208383</v>
       </c>
       <c r="D45" t="n">
-        <v>519.2695885725968</v>
+        <v>657.0991797595871</v>
       </c>
       <c r="E45" t="n">
-        <v>360.0321335671414</v>
+        <v>497.8617247541315</v>
       </c>
       <c r="F45" t="n">
-        <v>213.4975755940264</v>
+        <v>351.3271667810164</v>
       </c>
       <c r="G45" t="n">
-        <v>213.4975755940264</v>
+        <v>213.4170537272825</v>
       </c>
       <c r="H45" t="n">
-        <v>108.0547936189682</v>
+        <v>107.9742717522244</v>
       </c>
       <c r="I45" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J45" t="n">
-        <v>121.2693095721201</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K45" t="n">
-        <v>376.5166300132186</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="L45" t="n">
-        <v>781.1325481088904</v>
+        <v>450.5475434009183</v>
       </c>
       <c r="M45" t="n">
-        <v>1305.279461666921</v>
+        <v>974.6944569589491</v>
       </c>
       <c r="N45" t="n">
-        <v>1384.457047166354</v>
+        <v>1528.4209930585</v>
       </c>
       <c r="O45" t="n">
-        <v>1824.592970186698</v>
+        <v>1968.556916078844</v>
       </c>
       <c r="P45" t="n">
-        <v>2128.534374733916</v>
+        <v>2124.508281396724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2300.607358599512</v>
+        <v>2296.581265262321</v>
       </c>
       <c r="R45" t="n">
-        <v>2300.607358599512</v>
+        <v>2246.367894674146</v>
       </c>
       <c r="S45" t="n">
-        <v>2193.987390710604</v>
+        <v>2088.194922318062</v>
       </c>
       <c r="T45" t="n">
-        <v>1995.108842833383</v>
+        <v>2088.194922318062</v>
       </c>
       <c r="U45" t="n">
-        <v>1766.939218804223</v>
+        <v>2053.703219652464</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.78711057248</v>
+        <v>1818.551111420722</v>
       </c>
       <c r="W45" t="n">
-        <v>1277.549753844278</v>
+        <v>1564.31375469252</v>
       </c>
       <c r="X45" t="n">
-        <v>1069.698253638746</v>
+        <v>1356.462254486987</v>
       </c>
       <c r="Y45" t="n">
-        <v>861.9379548737918</v>
+        <v>1148.701955722033</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
       <c r="C46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
       <c r="D46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
       <c r="E46" t="n">
-        <v>278.6015390448244</v>
+        <v>317.5200459030362</v>
       </c>
       <c r="F46" t="n">
-        <v>278.6015390448244</v>
+        <v>170.6300984051259</v>
       </c>
       <c r="G46" t="n">
-        <v>203.7605197394601</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="H46" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="I46" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="J46" t="n">
-        <v>46.01214717199024</v>
+        <v>45.93162530524642</v>
       </c>
       <c r="K46" t="n">
-        <v>102.3143402382584</v>
+        <v>102.2338183715146</v>
       </c>
       <c r="L46" t="n">
-        <v>229.8881977994168</v>
+        <v>229.807675932673</v>
       </c>
       <c r="M46" t="n">
-        <v>374.7860665174467</v>
+        <v>374.7055446507029</v>
       </c>
       <c r="N46" t="n">
-        <v>521.6732042018757</v>
+        <v>521.5926823351319</v>
       </c>
       <c r="O46" t="n">
-        <v>641.3309547111159</v>
+        <v>641.2504328443721</v>
       </c>
       <c r="P46" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="Q46" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="R46" t="n">
-        <v>720.19814955806</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="S46" t="n">
-        <v>505.9097263762227</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="T46" t="n">
-        <v>278.6015390448244</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="U46" t="n">
-        <v>278.6015390448244</v>
+        <v>720.1176276913162</v>
       </c>
       <c r="V46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
       <c r="W46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
       <c r="X46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.6015390448244</v>
+        <v>465.4331394854294</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>278.1154692732874</v>
@@ -8227,7 +8227,7 @@
         <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
         <v>274.2303838009153</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
         <v>175.4738844625619</v>
@@ -8312,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,13 +8461,13 @@
         <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>141.0031762985419</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>240.1152448232079</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.69728268016711</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>235.8678947450826</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>240.1152448232079</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.69728268016711</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142005</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>200.1971826054059</v>
+        <v>196.2117568776814</v>
       </c>
       <c r="Q41" t="n">
         <v>58.3174843700358</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>343.6098768265506</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>361.2326131478291</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>200.1971826054059</v>
+        <v>196.2117568776814</v>
       </c>
       <c r="Q44" t="n">
         <v>58.3174843700358</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>285.8330625110366</v>
+        <v>136.3481744005949</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>377.6205392291453</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>165.291803318387</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.9501087269483</v>
+        <v>144.0645102682254</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2516130981336</v>
+        <v>251.2518917535621</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>66.01341476485048</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>42.36110880646704</v>
+        <v>106.1791426031375</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.80627507581644</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>61.10796951749761</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.0213026042026</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4636915935004</v>
+        <v>167.4652540339031</v>
       </c>
       <c r="H13" t="n">
-        <v>157.539104924446</v>
+        <v>157.5529964400265</v>
       </c>
       <c r="I13" t="n">
-        <v>139.5934937774191</v>
+        <v>139.6404806215297</v>
       </c>
       <c r="J13" t="n">
-        <v>56.07993513411562</v>
+        <v>56.19039967058729</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.00888322413441</v>
+        <v>42.13971630185596</v>
       </c>
       <c r="R13" t="n">
-        <v>153.5846160545865</v>
+        <v>153.6548690566939</v>
       </c>
       <c r="S13" t="n">
-        <v>214.8274103512886</v>
+        <v>214.8546394263067</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6993084960891</v>
       </c>
       <c r="U13" t="n">
-        <v>286.290268205675</v>
+        <v>32.88201295538508</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>305.5744741473803</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>216.6673332376964</v>
+        <v>414.1307230867058</v>
       </c>
       <c r="H14" t="n">
-        <v>327.4362371017634</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>165.1575175257453</v>
+        <v>165.291803318387</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>76.02876548799078</v>
+        <v>76.24756660133036</v>
       </c>
       <c r="S14" t="n">
-        <v>182.2334175411717</v>
+        <v>182.3127907984136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.9501087269483</v>
+        <v>217.9653564036823</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2518917535621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7145704878212</v>
+        <v>136.7164341603015</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>106.1791426031375</v>
       </c>
       <c r="I15" t="n">
-        <v>67.74210915927802</v>
+        <v>67.80627507581644</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.56936104703804</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>102.0054795928647</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4636915935004</v>
+        <v>167.4652540339031</v>
       </c>
       <c r="H16" t="n">
-        <v>157.539104924446</v>
+        <v>157.5529964400265</v>
       </c>
       <c r="I16" t="n">
-        <v>139.5934937774191</v>
+        <v>139.6404806215297</v>
       </c>
       <c r="J16" t="n">
-        <v>56.07993513411562</v>
+        <v>56.19039967058729</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.00888322413441</v>
+        <v>42.13971630185596</v>
       </c>
       <c r="R16" t="n">
-        <v>153.5846160545865</v>
+        <v>153.6548690566939</v>
       </c>
       <c r="S16" t="n">
-        <v>214.8274103512886</v>
+        <v>119.2176093565358</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6926326143684</v>
+        <v>225.6993084960891</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2903534296969</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>283.7379442849536</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>206.0211845500943</v>
+        <v>320.3618291272946</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>83.4172857910909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457207</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>96.70380346225863</v>
+        <v>143.2666439390531</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24144,10 +24144,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24177,13 +24177,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>56.01837628787186</v>
+        <v>60.87301268002756</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>396.5782217650452</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>112.0437002727857</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>153.58878460374</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>139.8379470282007</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>71.10273790248785</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>285.193552935616</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.80735538553398</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,16 +24651,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>230.7984815770175</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>323.0761449177591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,7 +24858,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>11.74536275704621</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24897,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>163.9534314950892</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>84.53681837930031</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24973,19 +24973,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.4602552217702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>4.034457689526789</v>
       </c>
       <c r="T34" t="n">
-        <v>167.5946525333123</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>110.2139525875698</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,13 +25210,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>112.7025231879168</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>116.8782844868823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>377.4973346444613</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>260.7615551004102</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>71.32843891062049</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25599,19 +25599,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25678,16 +25678,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>194.5848724851614</v>
       </c>
       <c r="U41" t="n">
-        <v>203.5940107873523</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>16.32473569503162</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>198.4825399871426</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>168.2692024642652</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>123.928967659488</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84.63479609571618</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>252.2654793197881</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>51.03747442250426</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>191.741142149927</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.21719314674021</v>
+        <v>43.85831389017025</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26073,16 +26073,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>997588.0271037318</v>
+        <v>998106.9462627155</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679605.3587635817</v>
+        <v>678943.7190949584</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679605.3587635817</v>
+        <v>678943.7190949586</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744772.1888539586</v>
+        <v>744772.1888539589</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744772.1888539586</v>
+        <v>744772.1888539589</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680020.180639084</v>
+        <v>679362.7526623271</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680020.1806390841</v>
+        <v>679362.752662327</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>313527.0343552536</v>
+        <v>313187.3541630313</v>
       </c>
       <c r="F2" t="n">
-        <v>313527.0343552537</v>
+        <v>313187.3541630314</v>
       </c>
       <c r="G2" t="n">
-        <v>346983.1320189091</v>
+        <v>346983.1320189088</v>
       </c>
       <c r="H2" t="n">
         <v>346983.132018909</v>
       </c>
       <c r="I2" t="n">
+        <v>346983.132018909</v>
+      </c>
+      <c r="J2" t="n">
         <v>346983.1320189091</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>346983.1320189091</v>
+      </c>
+      <c r="L2" t="n">
+        <v>346983.1320189091</v>
+      </c>
+      <c r="M2" t="n">
         <v>346983.132018909</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>346983.132018909</v>
       </c>
-      <c r="L2" t="n">
-        <v>346983.132018909</v>
-      </c>
-      <c r="M2" t="n">
-        <v>346983.1320189089</v>
-      </c>
-      <c r="N2" t="n">
-        <v>346983.1320189089</v>
-      </c>
       <c r="O2" t="n">
-        <v>318821.2774792885</v>
+        <v>318535.3498059679</v>
       </c>
       <c r="P2" t="n">
-        <v>318821.2774792884</v>
+        <v>318535.349805968</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
-        <v>1469.420920626199</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>393469.8711787186</v>
+        <v>392473.2415662614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93521.21132213881</v>
+        <v>94470.73339007737</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380385</v>
+        <v>11546.91810999085</v>
       </c>
       <c r="K3" t="n">
-        <v>1170.585694982279</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132332.225162515</v>
+        <v>132081.3955215146</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386863.3429119225</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="C4" t="n">
         <v>386095.5528670329</v>
@@ -26426,13 +26426,13 @@
         <v>386095.5528670329</v>
       </c>
       <c r="E4" t="n">
-        <v>79115.1806889076</v>
+        <v>79103.81831377186</v>
       </c>
       <c r="F4" t="n">
-        <v>79115.1806889076</v>
+        <v>79103.81831377186</v>
       </c>
       <c r="G4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="H4" t="n">
         <v>80234.2943167757</v>
@@ -26441,7 +26441,7 @@
         <v>80234.29431677572</v>
       </c>
       <c r="J4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="K4" t="n">
         <v>80234.2943167757</v>
@@ -26450,16 +26450,16 @@
         <v>80234.2943167757</v>
       </c>
       <c r="M4" t="n">
+        <v>80234.29431677572</v>
+      </c>
+      <c r="N4" t="n">
         <v>80234.2943167757</v>
       </c>
-      <c r="N4" t="n">
-        <v>80234.29431677569</v>
-      </c>
       <c r="O4" t="n">
-        <v>69387.33983385886</v>
+        <v>69277.21056472464</v>
       </c>
       <c r="P4" t="n">
-        <v>69387.33983385886</v>
+        <v>69277.21056472464</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
         <v>36310.8360806571</v>
@@ -26478,10 +26478,10 @@
         <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>41343.66157654575</v>
+        <v>41263.57647375203</v>
       </c>
       <c r="F5" t="n">
-        <v>41343.66157654575</v>
+        <v>41263.57647375203</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>43204.04373064507</v>
+        <v>43142.84711191976</v>
       </c>
       <c r="P5" t="n">
-        <v>43204.04373064507</v>
+        <v>43142.84711191976</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56461.95168828477</v>
+        <v>55428.96696663577</v>
       </c>
       <c r="C6" t="n">
-        <v>68749.2520502539</v>
+        <v>70218.67297088004</v>
       </c>
       <c r="D6" t="n">
-        <v>70218.6729708801</v>
+        <v>70218.67297087987</v>
       </c>
       <c r="E6" t="n">
-        <v>-207864.0969040566</v>
+        <v>-200400.9393064021</v>
       </c>
       <c r="F6" t="n">
-        <v>185605.7742746622</v>
+        <v>192072.3022598594</v>
       </c>
       <c r="G6" t="n">
-        <v>117927.7345707659</v>
+        <v>122439.7848740644</v>
       </c>
       <c r="H6" t="n">
-        <v>211448.9458929046</v>
+        <v>216910.518264142</v>
       </c>
       <c r="I6" t="n">
-        <v>211448.9458929047</v>
+        <v>216910.518264142</v>
       </c>
       <c r="J6" t="n">
-        <v>201092.0619891008</v>
+        <v>205363.6001541512</v>
       </c>
       <c r="K6" t="n">
-        <v>210278.3601979224</v>
+        <v>216910.5182641421</v>
       </c>
       <c r="L6" t="n">
-        <v>211448.9458929047</v>
+        <v>216910.5182641421</v>
       </c>
       <c r="M6" t="n">
-        <v>79116.72073038956</v>
+        <v>84829.12274262737</v>
       </c>
       <c r="N6" t="n">
-        <v>211448.9458929045</v>
+        <v>216910.5182641419</v>
       </c>
       <c r="O6" t="n">
-        <v>198988.0695631478</v>
+        <v>205389.9183288543</v>
       </c>
       <c r="P6" t="n">
-        <v>198988.0695631478</v>
+        <v>205389.9183288544</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>292.4050332950992</v>
+        <v>291.5385890717777</v>
       </c>
       <c r="F3" t="n">
-        <v>292.4050332950992</v>
+        <v>291.5385890717777</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>44.13217237922859</v>
@@ -26798,22 +26798,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>575.1518396498782</v>
+        <v>574.1453163155802</v>
       </c>
       <c r="F4" t="n">
-        <v>575.1518396498782</v>
+        <v>574.1453163155802</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>575.1518396498781</v>
+        <v>574.1453163155802</v>
       </c>
       <c r="P4" t="n">
-        <v>575.1518396498781</v>
+        <v>574.1453163155802</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>292.4050332950992</v>
+        <v>291.5385890717777</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85.33863092198749</v>
+        <v>86.20507514530892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>4.548295417388005</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.0196672706495</v>
+        <v>530.0131439363515</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.13543310467742</v>
+        <v>100.1419564389753</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.5838769618407</v>
+        <v>44.13217237922845</v>
       </c>
       <c r="K4" t="n">
-        <v>4.548295417387862</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.0196672706496</v>
+        <v>530.0131439363515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>4.548295417388005</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.0196672706495</v>
+        <v>530.0131439363515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>99.13543310467742</v>
+        <v>100.1419564389753</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.669416036174</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>322.5431732532999</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>128.4081575445007</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>217.5760956591883</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.2614834198218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>147.3151308327063</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F5" t="n">
         <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>398.3711086526678</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>322.5431732532999</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.4081575445007</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>134.5834728829491</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27745,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5022723806477</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>135.5187846613368</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>364.9987412097946</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>362.7438733624829</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>132.9374890786825</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27940,19 +27940,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5581449984711</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28028,10 +28028,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>49.22700773744418</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>157.361701111248</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.17549762128683</v>
+        <v>1.172014428429256</v>
       </c>
       <c r="H11" t="n">
-        <v>12.03856501400375</v>
+        <v>12.00289276515112</v>
       </c>
       <c r="I11" t="n">
-        <v>45.31837204466056</v>
+        <v>45.18408625201894</v>
       </c>
       <c r="J11" t="n">
-        <v>99.76889123469319</v>
+        <v>99.47325959489766</v>
       </c>
       <c r="K11" t="n">
-        <v>149.5277055437647</v>
+        <v>149.0846303503081</v>
       </c>
       <c r="L11" t="n">
-        <v>185.5023408712216</v>
+        <v>184.95266691435</v>
       </c>
       <c r="M11" t="n">
-        <v>206.4070966937813</v>
+        <v>205.7954785059288</v>
       </c>
       <c r="N11" t="n">
-        <v>209.7469793102625</v>
+        <v>209.1254645007034</v>
       </c>
       <c r="O11" t="n">
-        <v>198.0581248385915</v>
+        <v>197.47124602801</v>
       </c>
       <c r="P11" t="n">
-        <v>169.0380273130729</v>
+        <v>168.5371398261627</v>
       </c>
       <c r="Q11" t="n">
-        <v>126.9405187507383</v>
+        <v>126.5643731080399</v>
       </c>
       <c r="R11" t="n">
-        <v>73.8403524531589</v>
+        <v>73.62155133981932</v>
       </c>
       <c r="S11" t="n">
-        <v>26.78665204507367</v>
+        <v>26.7072787878317</v>
       </c>
       <c r="T11" t="n">
-        <v>5.145740837183101</v>
+        <v>5.130493160449071</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09403980970294638</v>
+        <v>0.09376115427434047</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6289466753894587</v>
+        <v>0.6270830029091067</v>
       </c>
       <c r="H12" t="n">
-        <v>6.074300785998194</v>
+        <v>6.056301633359005</v>
       </c>
       <c r="I12" t="n">
-        <v>21.65452369213707</v>
+        <v>21.59035777559863</v>
       </c>
       <c r="J12" t="n">
-        <v>59.42166813405409</v>
+        <v>59.24559195467135</v>
       </c>
       <c r="K12" t="n">
-        <v>101.5610953851478</v>
+        <v>101.2601531495815</v>
       </c>
       <c r="L12" t="n">
-        <v>136.5614261629612</v>
+        <v>136.1567721886637</v>
       </c>
       <c r="M12" t="n">
-        <v>159.360743145829</v>
+        <v>158.8885310441188</v>
       </c>
       <c r="N12" t="n">
-        <v>163.5785478242084</v>
+        <v>163.0938376732768</v>
       </c>
       <c r="O12" t="n">
-        <v>149.642413595842</v>
+        <v>149.198998503554</v>
       </c>
       <c r="P12" t="n">
-        <v>120.1012296188871</v>
+        <v>119.7453499151609</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.28449140585441</v>
+        <v>80.04659524853791</v>
       </c>
       <c r="R12" t="n">
-        <v>39.04986463514552</v>
+        <v>38.93415346132157</v>
       </c>
       <c r="S12" t="n">
-        <v>11.68240864155419</v>
+        <v>11.64779174263187</v>
       </c>
       <c r="T12" t="n">
-        <v>2.53509646790751</v>
+        <v>2.527584559971355</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04137807074930651</v>
+        <v>0.0412554607177044</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5272877649583756</v>
+        <v>0.5257253245556646</v>
       </c>
       <c r="H13" t="n">
-        <v>4.68806758299356</v>
+        <v>4.674176067413094</v>
       </c>
       <c r="I13" t="n">
-        <v>15.85698114983915</v>
+        <v>15.80999430572854</v>
       </c>
       <c r="J13" t="n">
-        <v>37.27924498255715</v>
+        <v>37.16878044608548</v>
       </c>
       <c r="K13" t="n">
-        <v>61.26125123789126</v>
+        <v>61.07972407110356</v>
       </c>
       <c r="L13" t="n">
-        <v>78.3933100739025</v>
+        <v>78.16101779803036</v>
       </c>
       <c r="M13" t="n">
-        <v>82.65475391979335</v>
+        <v>82.40983428466657</v>
       </c>
       <c r="N13" t="n">
-        <v>80.68940861403946</v>
+        <v>80.45031262041371</v>
       </c>
       <c r="O13" t="n">
-        <v>74.52972881429842</v>
+        <v>74.30888496537706</v>
       </c>
       <c r="P13" t="n">
-        <v>63.7730584091475</v>
+        <v>63.58408834444145</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.15316002755998</v>
+        <v>44.02232694983842</v>
       </c>
       <c r="R13" t="n">
-        <v>23.70877532258295</v>
+        <v>23.63852232047561</v>
       </c>
       <c r="S13" t="n">
-        <v>9.189187685683686</v>
+        <v>9.161958610665533</v>
       </c>
       <c r="T13" t="n">
-        <v>2.252956813913058</v>
+        <v>2.246280932192385</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02876115081591143</v>
+        <v>0.02867592679394538</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.17549762128683</v>
+        <v>1.172014428429256</v>
       </c>
       <c r="H14" t="n">
-        <v>12.03856501400375</v>
+        <v>12.00289276515112</v>
       </c>
       <c r="I14" t="n">
-        <v>45.31837204466056</v>
+        <v>45.18408625201894</v>
       </c>
       <c r="J14" t="n">
-        <v>99.76889123469319</v>
+        <v>99.47325959489766</v>
       </c>
       <c r="K14" t="n">
-        <v>149.5277055437647</v>
+        <v>149.0846303503081</v>
       </c>
       <c r="L14" t="n">
-        <v>185.5023408712216</v>
+        <v>184.95266691435</v>
       </c>
       <c r="M14" t="n">
-        <v>206.4070966937813</v>
+        <v>205.7954785059288</v>
       </c>
       <c r="N14" t="n">
-        <v>209.7469793102625</v>
+        <v>209.1254645007034</v>
       </c>
       <c r="O14" t="n">
-        <v>198.0581248385915</v>
+        <v>197.47124602801</v>
       </c>
       <c r="P14" t="n">
-        <v>169.0380273130729</v>
+        <v>168.5371398261627</v>
       </c>
       <c r="Q14" t="n">
-        <v>126.9405187507383</v>
+        <v>126.5643731080399</v>
       </c>
       <c r="R14" t="n">
-        <v>73.8403524531589</v>
+        <v>73.62155133981932</v>
       </c>
       <c r="S14" t="n">
-        <v>26.78665204507367</v>
+        <v>26.7072787878317</v>
       </c>
       <c r="T14" t="n">
-        <v>5.145740837183101</v>
+        <v>5.130493160449071</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09403980970294638</v>
+        <v>0.09376115427434047</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6289466753894587</v>
+        <v>0.6270830029091067</v>
       </c>
       <c r="H15" t="n">
-        <v>6.074300785998194</v>
+        <v>6.056301633359005</v>
       </c>
       <c r="I15" t="n">
-        <v>21.65452369213707</v>
+        <v>21.59035777559863</v>
       </c>
       <c r="J15" t="n">
-        <v>59.42166813405409</v>
+        <v>59.24559195467135</v>
       </c>
       <c r="K15" t="n">
-        <v>101.5610953851478</v>
+        <v>101.2601531495815</v>
       </c>
       <c r="L15" t="n">
-        <v>136.5614261629612</v>
+        <v>136.1567721886637</v>
       </c>
       <c r="M15" t="n">
-        <v>159.360743145829</v>
+        <v>158.8885310441188</v>
       </c>
       <c r="N15" t="n">
-        <v>163.5785478242084</v>
+        <v>163.0938376732768</v>
       </c>
       <c r="O15" t="n">
-        <v>149.642413595842</v>
+        <v>149.198998503554</v>
       </c>
       <c r="P15" t="n">
-        <v>120.1012296188871</v>
+        <v>119.7453499151609</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.28449140585441</v>
+        <v>80.04659524853791</v>
       </c>
       <c r="R15" t="n">
-        <v>39.04986463514552</v>
+        <v>38.93415346132157</v>
       </c>
       <c r="S15" t="n">
-        <v>11.68240864155419</v>
+        <v>11.64779174263187</v>
       </c>
       <c r="T15" t="n">
-        <v>2.53509646790751</v>
+        <v>2.527584559971355</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04137807074930651</v>
+        <v>0.0412554607177044</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5272877649583756</v>
+        <v>0.5257253245556646</v>
       </c>
       <c r="H16" t="n">
-        <v>4.68806758299356</v>
+        <v>4.674176067413094</v>
       </c>
       <c r="I16" t="n">
-        <v>15.85698114983915</v>
+        <v>15.80999430572854</v>
       </c>
       <c r="J16" t="n">
-        <v>37.27924498255715</v>
+        <v>37.16878044608548</v>
       </c>
       <c r="K16" t="n">
-        <v>61.26125123789126</v>
+        <v>61.07972407110356</v>
       </c>
       <c r="L16" t="n">
-        <v>78.3933100739025</v>
+        <v>78.16101779803036</v>
       </c>
       <c r="M16" t="n">
-        <v>82.65475391979335</v>
+        <v>82.40983428466657</v>
       </c>
       <c r="N16" t="n">
-        <v>80.68940861403946</v>
+        <v>80.45031262041371</v>
       </c>
       <c r="O16" t="n">
-        <v>74.52972881429842</v>
+        <v>74.30888496537706</v>
       </c>
       <c r="P16" t="n">
-        <v>63.7730584091475</v>
+        <v>63.58408834444145</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.15316002755998</v>
+        <v>44.02232694983842</v>
       </c>
       <c r="R16" t="n">
-        <v>23.70877532258295</v>
+        <v>23.63852232047561</v>
       </c>
       <c r="S16" t="n">
-        <v>9.189187685683686</v>
+        <v>9.161958610665533</v>
       </c>
       <c r="T16" t="n">
-        <v>2.252956813913058</v>
+        <v>2.246280932192385</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02876115081591143</v>
+        <v>0.02867592679394538</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>42.34905430330018</v>
@@ -34947,7 +34947,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
         <v>44.13217237922859</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="L6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
         <v>44.13217237922859</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>42.34905430330019</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>87.81960188008067</v>
+        <v>87.52397024028514</v>
       </c>
       <c r="K11" t="n">
-        <v>253.5832670699489</v>
+        <v>253.1401918764923</v>
       </c>
       <c r="L11" t="n">
-        <v>367.3971404516848</v>
+        <v>366.8474664948131</v>
       </c>
       <c r="M11" t="n">
-        <v>425.574396959341</v>
+        <v>424.9627787714885</v>
       </c>
       <c r="N11" t="n">
-        <v>417.6808401256557</v>
+        <v>417.0593253160966</v>
       </c>
       <c r="O11" t="n">
-        <v>348.7600946796501</v>
+        <v>348.1732158690686</v>
       </c>
       <c r="P11" t="n">
-        <v>259.603739729286</v>
+        <v>259.1028522423758</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.9498195361935</v>
+        <v>116.5736738934951</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>58.67507680779623</v>
+        <v>58.4990006284135</v>
       </c>
       <c r="K12" t="n">
-        <v>228.1848934233674</v>
+        <v>227.8839511878011</v>
       </c>
       <c r="L12" t="n">
-        <v>368.8473916865462</v>
+        <v>138.6055687073314</v>
       </c>
       <c r="M12" t="n">
-        <v>482.9317729738107</v>
+        <v>482.4595608721004</v>
       </c>
       <c r="N12" t="n">
-        <v>511.5792100844286</v>
+        <v>511.094499933497</v>
       </c>
       <c r="O12" t="n">
-        <v>400.908488428127</v>
+        <v>400.4650733358391</v>
       </c>
       <c r="P12" t="n">
-        <v>226.2420670277648</v>
+        <v>304.2337111407678</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>150.1421088983655</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>38.99175941200841</v>
+        <v>38.81023224522071</v>
       </c>
       <c r="L13" t="n">
-        <v>105.9833353342186</v>
+        <v>105.7510430583465</v>
       </c>
       <c r="M13" t="n">
-        <v>122.2386308816339</v>
+        <v>121.9937112465072</v>
       </c>
       <c r="N13" t="n">
-        <v>124.8215809932681</v>
+        <v>124.5824849996423</v>
       </c>
       <c r="O13" t="n">
-        <v>99.1148567283381</v>
+        <v>98.89401287941674</v>
       </c>
       <c r="P13" t="n">
-        <v>61.05161767404099</v>
+        <v>60.86264760933494</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.81960188008092</v>
+        <v>87.52397024028535</v>
       </c>
       <c r="K14" t="n">
-        <v>253.5832670699489</v>
+        <v>253.1401918764923</v>
       </c>
       <c r="L14" t="n">
-        <v>367.3971404516848</v>
+        <v>366.8474664948131</v>
       </c>
       <c r="M14" t="n">
-        <v>425.574396959341</v>
+        <v>424.9627787714885</v>
       </c>
       <c r="N14" t="n">
-        <v>417.6808401256557</v>
+        <v>417.0593253160966</v>
       </c>
       <c r="O14" t="n">
-        <v>348.7600946796501</v>
+        <v>348.1732158690686</v>
       </c>
       <c r="P14" t="n">
-        <v>259.603739729286</v>
+        <v>259.1028522423758</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.9498195361935</v>
+        <v>116.5736738934951</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>58.67507680779623</v>
+        <v>58.4990006284135</v>
       </c>
       <c r="K15" t="n">
-        <v>228.1848934233674</v>
+        <v>227.8839511878011</v>
       </c>
       <c r="L15" t="n">
-        <v>368.8473916865462</v>
+        <v>368.4427377122487</v>
       </c>
       <c r="M15" t="n">
-        <v>482.9317729738107</v>
+        <v>252.6223918671831</v>
       </c>
       <c r="N15" t="n">
-        <v>511.5792100844286</v>
+        <v>511.094499933497</v>
       </c>
       <c r="O15" t="n">
-        <v>400.908488428127</v>
+        <v>400.4650733358391</v>
       </c>
       <c r="P15" t="n">
-        <v>226.2420670277648</v>
+        <v>304.2337111407678</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1421088983655</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>38.99175941200841</v>
+        <v>38.81023224522071</v>
       </c>
       <c r="L16" t="n">
-        <v>105.9833353342186</v>
+        <v>105.7510430583465</v>
       </c>
       <c r="M16" t="n">
-        <v>122.2386308816339</v>
+        <v>121.9937112465072</v>
       </c>
       <c r="N16" t="n">
-        <v>124.8215809932681</v>
+        <v>124.5824849996423</v>
       </c>
       <c r="O16" t="n">
-        <v>99.1148567283381</v>
+        <v>98.89401287941674</v>
       </c>
       <c r="P16" t="n">
-        <v>61.05161767404099</v>
+        <v>60.86264760933494</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047517</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36679,13 +36679,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>187.336090745603</v>
+        <v>183.3506650178785</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>407.3461399028445</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>411.9520342956893</v>
+        <v>50.71942114786023</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -38034,7 +38034,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>187.336090745603</v>
+        <v>183.3506650178785</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>79.97735909033668</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>307.011519744664</v>
+        <v>157.5266316342224</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
